--- a/MattanaSite/MattanaSite/MTemplates/form_checkin_month.xlsx
+++ b/MattanaSite/MattanaSite/MTemplates/form_checkin_month.xlsx
@@ -4,39 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6225"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16395" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Bao Cao" sheetId="23" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Bao Cao'!$A$1:$N$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Bao Cao'!$A$1:$N$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t xml:space="preserve">Họ và tên : </t>
   </si>
   <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>(6)</t>
-  </si>
-  <si>
     <t>Mã ĐL</t>
   </si>
   <si>
@@ -67,15 +52,6 @@
     <t>LỊCH TRÌNH</t>
   </si>
   <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>(8)</t>
-  </si>
-  <si>
-    <t>(9)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ghi Nhận Các Ý Kiến Đóng Góp, Nguyên Nhân Không Lấy Hàng </t>
   </si>
   <si>
@@ -83,15 +59,6 @@
   </si>
   <si>
     <t>Số Điện Thoại</t>
-  </si>
-  <si>
-    <t>(10)</t>
-  </si>
-  <si>
-    <t>(11)</t>
-  </si>
-  <si>
-    <t>(22)</t>
   </si>
   <si>
     <t>BÁO CÁO LỊCH CÔNG TÁC</t>
@@ -116,12 +83,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;Tháng &quot;#,##0\ &quot;năm 2018&quot;"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$VND]\ #,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -144,24 +112,13 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +143,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -227,19 +196,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -266,98 +222,122 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,301 +644,240 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="38" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="44" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16" style="5" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="66.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="15" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="16" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" style="35" customWidth="1"/>
+    <col min="14" max="14" width="66.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="12" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-    </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-    </row>
-    <row r="3" spans="1:17" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="C6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="27"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="M7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="25"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="25"/>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="12">
